--- a/docs-compose/overwatch_docs/static/assets/DeployOverwatch/071x_overwatch_deployment_config_template.xlsx
+++ b/docs-compose/overwatch_docs/static/assets/DeployOverwatch/071x_overwatch_deployment_config_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomesd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Databricks--Overwatch\docs-compose\overwatch_docs\static\assets\DeployOverwatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5EE78902-8EB8-4D82-9DF8-1FFA3A407AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533D013-8529-425C-9BC9-5E46CBDAAD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="960" windowWidth="51840" windowHeight="18495"/>
+    <workbookView xWindow="1365" yWindow="960" windowWidth="51840" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mws_advance_config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>workspace_name</t>
   </si>
@@ -199,9 +199,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -685,8 +685,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,10 +1041,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1061,28 +1063,26 @@
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,64 +1126,58 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1223,35 +1217,29 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="O2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.3</v>
       </c>
       <c r="Q2">
-        <v>0.55000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="R2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S2">
-        <v>0.22</v>
-      </c>
-      <c r="T2">
-        <v>0.1</v>
-      </c>
-      <c r="U2">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="b">
+      <c r="U2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1291,35 +1279,29 @@
       <c r="N3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
+      <c r="O3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.3</v>
       </c>
       <c r="Q3">
-        <v>0.55000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="R3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S3">
-        <v>0.22</v>
-      </c>
-      <c r="T3">
-        <v>0.1</v>
-      </c>
-      <c r="U3">
         <v>30</v>
       </c>
-      <c r="V3" t="s">
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="W3" t="b">
+      <c r="U3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1356,22 +1338,22 @@
       <c r="L4" t="s">
         <v>54</v>
       </c>
+      <c r="O4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P4">
+        <v>0.3</v>
+      </c>
       <c r="Q4">
-        <v>0.55000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="R4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S4">
-        <v>0.22</v>
-      </c>
-      <c r="T4">
-        <v>0.1</v>
-      </c>
-      <c r="U4">
         <v>30</v>
       </c>
-      <c r="W4" t="b">
+      <c r="U4" t="b">
         <v>1</v>
       </c>
     </row>
